--- a/Code/Results/Cases/Case_3_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.370029388551643</v>
+        <v>1.207906656956141</v>
       </c>
       <c r="C2">
-        <v>0.8868371399020987</v>
+        <v>0.2612727038401204</v>
       </c>
       <c r="D2">
-        <v>0.02944181019743652</v>
+        <v>0.03560839030920349</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.29685655517271</v>
+        <v>1.491134305621458</v>
       </c>
       <c r="G2">
-        <v>0.000763353217722394</v>
+        <v>0.00243532404439037</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.835565016320842</v>
+        <v>0.889982664372809</v>
       </c>
       <c r="N2">
-        <v>1.035388841059614</v>
+        <v>1.487873516028912</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.899256738355291</v>
+        <v>1.086988433806766</v>
       </c>
       <c r="C3">
-        <v>0.7629340221194809</v>
+        <v>0.2281047212326826</v>
       </c>
       <c r="D3">
-        <v>0.0288102051171677</v>
+        <v>0.03554262974331479</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.024160276694076</v>
+        <v>1.4297873275641</v>
       </c>
       <c r="G3">
-        <v>0.0007729563435821641</v>
+        <v>0.00244100016583757</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.406366952238585</v>
+        <v>0.7920376295144536</v>
       </c>
       <c r="N3">
-        <v>1.038469393353807</v>
+        <v>1.491476075969715</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.615430934151846</v>
+        <v>1.013330230173608</v>
       </c>
       <c r="C4">
-        <v>0.6881486292748491</v>
+        <v>0.2077876783929469</v>
       </c>
       <c r="D4">
-        <v>0.02853906748346802</v>
+        <v>0.03552148865344762</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.862598244594921</v>
+        <v>1.393126634143044</v>
       </c>
       <c r="G4">
-        <v>0.0007789725887910139</v>
+        <v>0.002444664196820207</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.153327459207176</v>
+        <v>0.732455050000425</v>
       </c>
       <c r="N4">
-        <v>1.042779194294951</v>
+        <v>1.49424478498554</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.500882296704219</v>
+        <v>0.9834587638505923</v>
       </c>
       <c r="C5">
-        <v>0.6579429606834992</v>
+        <v>0.1995196642209862</v>
       </c>
       <c r="D5">
-        <v>0.0284544857452147</v>
+        <v>0.03551764733011353</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.798050091021636</v>
+        <v>1.37843730046238</v>
       </c>
       <c r="G5">
-        <v>0.000781457351097258</v>
+        <v>0.002446202467672365</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.052377256063878</v>
+        <v>0.7083076036762606</v>
       </c>
       <c r="N5">
-        <v>1.045087313570335</v>
+        <v>1.495511904104035</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.481923250050727</v>
+        <v>0.9785073053806173</v>
       </c>
       <c r="C6">
-        <v>0.6529421420338792</v>
+        <v>0.1981474293870917</v>
       </c>
       <c r="D6">
-        <v>0.02844191397819529</v>
+        <v>0.03551729597500142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.787404716963806</v>
+        <v>1.376013174347818</v>
       </c>
       <c r="G6">
-        <v>0.0007818720225764805</v>
+        <v>0.002446460628257819</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.035732944448014</v>
+        <v>0.7043057690154626</v>
       </c>
       <c r="N6">
-        <v>1.045502385581855</v>
+        <v>1.495730661047702</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.613881838826558</v>
+        <v>1.012926789943947</v>
       </c>
       <c r="C7">
-        <v>0.687740240281471</v>
+        <v>0.2076761281513768</v>
       </c>
       <c r="D7">
-        <v>0.02853782608797317</v>
+        <v>0.03552141760192029</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.861722736679454</v>
+        <v>1.39292751944528</v>
       </c>
       <c r="G7">
-        <v>0.0007790059615949726</v>
+        <v>0.002444684759512592</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.151957811153451</v>
+        <v>0.7321288598389657</v>
       </c>
       <c r="N7">
-        <v>1.042808157518223</v>
+        <v>1.494261313107856</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.206492625352496</v>
+        <v>1.166090845071039</v>
       </c>
       <c r="C8">
-        <v>0.8438124226411219</v>
+        <v>0.2498258888563498</v>
       </c>
       <c r="D8">
-        <v>0.02919760561021789</v>
+        <v>0.03558168521084326</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.201491889662762</v>
+        <v>1.469771158553655</v>
       </c>
       <c r="G8">
-        <v>0.000766641379429284</v>
+        <v>0.002437244149819325</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.685090359225327</v>
+        <v>0.8560915894332624</v>
       </c>
       <c r="N8">
-        <v>1.035912999910707</v>
+        <v>1.488999437483457</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.420532602279479</v>
+        <v>1.471226435440769</v>
       </c>
       <c r="C9">
-        <v>1.162941073122454</v>
+        <v>0.3329038136561735</v>
       </c>
       <c r="D9">
-        <v>0.03160056721651117</v>
+        <v>0.03585541601623277</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.92415847900179</v>
+        <v>1.628590148478366</v>
       </c>
       <c r="G9">
-        <v>0.0007431908807337216</v>
+        <v>0.002424064575472778</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.840319500272201</v>
+        <v>1.103922011171832</v>
       </c>
       <c r="N9">
-        <v>1.044544608574256</v>
+        <v>1.483150767534752</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.3611067168369</v>
+        <v>1.698530926909143</v>
       </c>
       <c r="C10">
-        <v>1.409963671627168</v>
+        <v>0.3942598878412014</v>
       </c>
       <c r="D10">
-        <v>0.0343567340534463</v>
+        <v>0.03615548230681043</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.50565450271273</v>
+        <v>1.75044133117072</v>
       </c>
       <c r="G10">
-        <v>0.0007261870444131768</v>
+        <v>0.002415231021234734</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.804633835762871</v>
+        <v>1.289371578000257</v>
       </c>
       <c r="N10">
-        <v>1.069388106052912</v>
+        <v>1.481652699949436</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.804200356438173</v>
+        <v>1.802662232735429</v>
       </c>
       <c r="C11">
-        <v>1.526323168465979</v>
+        <v>0.4222553460726317</v>
       </c>
       <c r="D11">
-        <v>0.03591934810015118</v>
+        <v>0.03631439266431613</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.785749973163632</v>
+        <v>1.807043689552103</v>
       </c>
       <c r="G11">
-        <v>0.0007184249486420822</v>
+        <v>0.002411394509811818</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.2843741188683</v>
+        <v>1.37457661968169</v>
       </c>
       <c r="N11">
-        <v>1.086163650041527</v>
+        <v>1.481595273199318</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.97465281118258</v>
+        <v>1.8422023171305</v>
       </c>
       <c r="C12">
-        <v>1.57108707467853</v>
+        <v>0.4328696295687564</v>
       </c>
       <c r="D12">
-        <v>0.03656589346196171</v>
+        <v>0.03637786600428683</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.894540458992054</v>
+        <v>1.82864964613205</v>
       </c>
       <c r="G12">
-        <v>0.0007154735225060841</v>
+        <v>0.002409967700758379</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.47388780112307</v>
+        <v>1.406971522056864</v>
       </c>
       <c r="N12">
-        <v>1.093462627149862</v>
+        <v>1.481664617536126</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.937815869353585</v>
+        <v>1.833681809733321</v>
       </c>
       <c r="C13">
-        <v>1.561412890049439</v>
+        <v>0.4305830606359109</v>
       </c>
       <c r="D13">
-        <v>0.03642401379686788</v>
+        <v>0.03636404801827808</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.870980360342827</v>
+        <v>1.823988718115288</v>
       </c>
       <c r="G13">
-        <v>0.0007161098569063995</v>
+        <v>0.00241027383597316</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.432684978795436</v>
+        <v>1.399988800403293</v>
       </c>
       <c r="N13">
-        <v>1.091845586219719</v>
+        <v>1.481645609921003</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.818167179721229</v>
+        <v>1.80591304135919</v>
       </c>
       <c r="C14">
-        <v>1.529991053217714</v>
+        <v>0.423128323626031</v>
       </c>
       <c r="D14">
-        <v>0.03597137142065066</v>
+        <v>0.03631954813317861</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.794642448127888</v>
+        <v>1.808817760399705</v>
       </c>
       <c r="G14">
-        <v>0.000718182430026193</v>
+        <v>0.002411276605352634</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.299794607120106</v>
+        <v>1.377239121608</v>
       </c>
       <c r="N14">
-        <v>1.086744114296351</v>
+        <v>1.481599144782763</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.745241255953772</v>
+        <v>1.788917998450927</v>
       </c>
       <c r="C15">
-        <v>1.510839772996519</v>
+        <v>0.4185638031750614</v>
       </c>
       <c r="D15">
-        <v>0.03570161036298458</v>
+        <v>0.03629272234580583</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.748254377588211</v>
+        <v>1.799547595194895</v>
       </c>
       <c r="G15">
-        <v>0.000719450086358783</v>
+        <v>0.002411894210728947</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.219486811318589</v>
+        <v>1.36332141683171</v>
       </c>
       <c r="N15">
-        <v>1.083747988784239</v>
+        <v>1.481582586751813</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.332494290140687</v>
+        <v>1.691740627362265</v>
       </c>
       <c r="C16">
-        <v>1.402449931732008</v>
+        <v>0.3924320905055652</v>
       </c>
       <c r="D16">
-        <v>0.03426165701613826</v>
+        <v>0.03614555444718803</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.487701990003217</v>
+        <v>1.746766098920489</v>
       </c>
       <c r="G16">
-        <v>0.0007266931175565481</v>
+        <v>0.002415485392818167</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.774258987638106</v>
+        <v>1.28382090325016</v>
       </c>
       <c r="N16">
-        <v>1.068414673535145</v>
+        <v>1.481669125562732</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.083496104288656</v>
+        <v>1.632314333118813</v>
       </c>
       <c r="C17">
-        <v>1.337061330431652</v>
+        <v>0.3764233451595942</v>
       </c>
       <c r="D17">
-        <v>0.03346398745185297</v>
+        <v>0.03606106408029319</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.332162430406214</v>
+        <v>1.71468884072911</v>
       </c>
       <c r="G17">
-        <v>0.0007311243495242703</v>
+        <v>0.002417734942306341</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.512827780295751</v>
+        <v>1.23527173017338</v>
       </c>
       <c r="N17">
-        <v>1.060511833571212</v>
+        <v>1.481883004373117</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.941678728006138</v>
+        <v>1.598202370884508</v>
       </c>
       <c r="C18">
-        <v>1.299818009991384</v>
+        <v>0.3672234159230925</v>
       </c>
       <c r="D18">
-        <v>0.0330335016546357</v>
+        <v>0.0360145720901599</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.244131283280865</v>
+        <v>1.69634892461292</v>
       </c>
       <c r="G18">
-        <v>0.0007336711301435334</v>
+        <v>0.002419045956344771</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.366178098937297</v>
+        <v>1.20742637238169</v>
       </c>
       <c r="N18">
-        <v>1.056470124809906</v>
+        <v>1.48206467830515</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.893889189012441</v>
+        <v>1.586664317975647</v>
       </c>
       <c r="C19">
-        <v>1.287267484636629</v>
+        <v>0.3641098040418456</v>
       </c>
       <c r="D19">
-        <v>0.03289233421403992</v>
+        <v>0.03599918991064044</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.214558136562204</v>
+        <v>1.690158147153937</v>
       </c>
       <c r="G19">
-        <v>0.0007345333099009712</v>
+        <v>0.00241949279089428</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.317114913020518</v>
+        <v>1.198011702931964</v>
       </c>
       <c r="N19">
-        <v>1.055183957306923</v>
+        <v>1.482136223410293</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.109854362365809</v>
+        <v>1.638633256074797</v>
       </c>
       <c r="C20">
-        <v>1.343983279266183</v>
+        <v>0.3781266817089772</v>
       </c>
       <c r="D20">
-        <v>0.03354590356160969</v>
+        <v>0.03606983986316692</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.348568591529187</v>
+        <v>1.718092102971696</v>
       </c>
       <c r="G20">
-        <v>0.0007306528916689667</v>
+        <v>0.002417493701765125</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.540260751925075</v>
+        <v>1.240431652782064</v>
       </c>
       <c r="N20">
-        <v>1.061299932699725</v>
+        <v>1.481854156159358</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.853234406790705</v>
+        <v>1.814066451840347</v>
       </c>
       <c r="C21">
-        <v>1.539200242778406</v>
+        <v>0.4253176002746386</v>
       </c>
       <c r="D21">
-        <v>0.03610273867621316</v>
+        <v>0.03633252873116533</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.816986374424317</v>
+        <v>1.813269146554603</v>
       </c>
       <c r="G21">
-        <v>0.0007175740694201471</v>
+        <v>0.002410981363664721</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.338595764160459</v>
+        <v>1.383917668522628</v>
       </c>
       <c r="N21">
-        <v>1.088215380382564</v>
+        <v>1.481610309652666</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.354887069038568</v>
+        <v>1.929352047894326</v>
       </c>
       <c r="C22">
-        <v>1.670950365801787</v>
+        <v>0.4562358587294284</v>
       </c>
       <c r="D22">
-        <v>0.03810039792801234</v>
+        <v>0.03652346697434439</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.139319145812522</v>
+        <v>1.876476264070448</v>
       </c>
       <c r="G22">
-        <v>0.0007089502817697182</v>
+        <v>0.002406876612615927</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.90757858082668</v>
+        <v>1.478453549018141</v>
       </c>
       <c r="N22">
-        <v>1.111429566291264</v>
+        <v>1.481982531468944</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.085516969557773</v>
+        <v>1.867763335255688</v>
       </c>
       <c r="C23">
-        <v>1.600202935604784</v>
+        <v>0.4397269245177426</v>
       </c>
       <c r="D23">
-        <v>0.03700008721310866</v>
+        <v>0.0364197725291362</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.965610383417669</v>
+        <v>1.842648487084659</v>
       </c>
       <c r="G23">
-        <v>0.0007135632412178604</v>
+        <v>0.002409053593287399</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.598734439254002</v>
+        <v>1.427925652409428</v>
       </c>
       <c r="N23">
-        <v>1.098461007651522</v>
+        <v>1.481734776344041</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.097933670198586</v>
+        <v>1.635776306126047</v>
       </c>
       <c r="C24">
-        <v>1.340852787033441</v>
+        <v>0.3773565917610426</v>
       </c>
       <c r="D24">
-        <v>0.03350878249305111</v>
+        <v>0.03606586585068072</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.341147069717238</v>
+        <v>1.71655317151081</v>
       </c>
       <c r="G24">
-        <v>0.0007308660396364036</v>
+        <v>0.00241760271147501</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.527847070606242</v>
+        <v>1.238098646175729</v>
       </c>
       <c r="N24">
-        <v>1.060942081725855</v>
+        <v>1.481867015663838</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.084944034176601</v>
+        <v>1.388146166320382</v>
       </c>
       <c r="C25">
-        <v>1.074776147028643</v>
+        <v>0.3103775442822041</v>
       </c>
       <c r="D25">
-        <v>0.03080306691538581</v>
+        <v>0.03576429005553194</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.721114821003482</v>
+        <v>1.584733506319594</v>
       </c>
       <c r="G25">
-        <v>0.0007494736406980986</v>
+        <v>0.002427480030103785</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.511778065926947</v>
+        <v>1.036321109343234</v>
       </c>
       <c r="N25">
-        <v>1.03937782790446</v>
+        <v>1.484246881604037</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_72/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.207906656956141</v>
+        <v>3.370029388551586</v>
       </c>
       <c r="C2">
-        <v>0.2612727038401204</v>
+        <v>0.8868371399020987</v>
       </c>
       <c r="D2">
-        <v>0.03560839030920349</v>
+        <v>0.02944181019755021</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.491134305621458</v>
+        <v>2.29685655517271</v>
       </c>
       <c r="G2">
-        <v>0.00243532404439037</v>
+        <v>0.0007633532177216446</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.889982664372809</v>
+        <v>2.835565016320857</v>
       </c>
       <c r="N2">
-        <v>1.487873516028912</v>
+        <v>1.035388841059614</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.086988433806766</v>
+        <v>2.899256738355234</v>
       </c>
       <c r="C3">
-        <v>0.2281047212326826</v>
+        <v>0.7629340221194525</v>
       </c>
       <c r="D3">
-        <v>0.03554262974331479</v>
+        <v>0.02881020511706112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.4297873275641</v>
+        <v>2.024160276694104</v>
       </c>
       <c r="G3">
-        <v>0.00244100016583757</v>
+        <v>0.0007729563436375615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7920376295144536</v>
+        <v>2.406366952238585</v>
       </c>
       <c r="N3">
-        <v>1.491476075969715</v>
+        <v>1.03846939335385</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.013330230173608</v>
+        <v>2.615430934151789</v>
       </c>
       <c r="C4">
-        <v>0.2077876783929469</v>
+        <v>0.6881486292745649</v>
       </c>
       <c r="D4">
-        <v>0.03552148865344762</v>
+        <v>0.02853906748359947</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.393126634143044</v>
+        <v>1.862598244594892</v>
       </c>
       <c r="G4">
-        <v>0.002444664196820207</v>
+        <v>0.0007789725888442742</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.732455050000425</v>
+        <v>2.153327459207205</v>
       </c>
       <c r="N4">
-        <v>1.49424478498554</v>
+        <v>1.04277919429498</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9834587638505923</v>
+        <v>2.500882296704276</v>
       </c>
       <c r="C5">
-        <v>0.1995196642209862</v>
+        <v>0.6579429606839255</v>
       </c>
       <c r="D5">
-        <v>0.03551764733011353</v>
+        <v>0.02845448574531773</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.37843730046238</v>
+        <v>1.798050091021636</v>
       </c>
       <c r="G5">
-        <v>0.002446202467672365</v>
+        <v>0.0007814573510457334</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7083076036762606</v>
+        <v>2.052377256063892</v>
       </c>
       <c r="N5">
-        <v>1.495511904104035</v>
+        <v>1.045087313570392</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9785073053806173</v>
+        <v>2.481923250050784</v>
       </c>
       <c r="C6">
-        <v>0.1981474293870917</v>
+        <v>0.6529421420337087</v>
       </c>
       <c r="D6">
-        <v>0.03551729597500142</v>
+        <v>0.02844191397830187</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.376013174347818</v>
+        <v>1.787404716963778</v>
       </c>
       <c r="G6">
-        <v>0.002446460628257819</v>
+        <v>0.0007818720225505338</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7043057690154626</v>
+        <v>2.035732944448057</v>
       </c>
       <c r="N6">
-        <v>1.495730661047702</v>
+        <v>1.045502385581869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.012926789943947</v>
+        <v>2.613881838826558</v>
       </c>
       <c r="C7">
-        <v>0.2076761281513768</v>
+        <v>0.6877402402814425</v>
       </c>
       <c r="D7">
-        <v>0.03552141760192029</v>
+        <v>0.0285378260880691</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.39292751944528</v>
+        <v>1.861722736679454</v>
       </c>
       <c r="G7">
-        <v>0.002444684759512592</v>
+        <v>0.0007790059616499576</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7321288598389657</v>
+        <v>2.151957811153451</v>
       </c>
       <c r="N7">
-        <v>1.494261313107856</v>
+        <v>1.042808157518152</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.166090845071039</v>
+        <v>3.206492625352382</v>
       </c>
       <c r="C8">
-        <v>0.2498258888563498</v>
+        <v>0.8438124226410082</v>
       </c>
       <c r="D8">
-        <v>0.03558168521084326</v>
+        <v>0.02919760561010065</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.469771158553655</v>
+        <v>2.201491889662776</v>
       </c>
       <c r="G8">
-        <v>0.002437244149819325</v>
+        <v>0.0007666413794278385</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8560915894332624</v>
+        <v>2.685090359225299</v>
       </c>
       <c r="N8">
-        <v>1.488999437483457</v>
+        <v>1.035912999910749</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.471226435440769</v>
+        <v>4.42053260227965</v>
       </c>
       <c r="C9">
-        <v>0.3329038136561735</v>
+        <v>1.162941073122681</v>
       </c>
       <c r="D9">
-        <v>0.03585541601623277</v>
+        <v>0.03160056721659998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.628590148478366</v>
+        <v>2.92415847900179</v>
       </c>
       <c r="G9">
-        <v>0.002424064575472778</v>
+        <v>0.0007431908806686626</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.103922011171832</v>
+        <v>3.840319500272187</v>
       </c>
       <c r="N9">
-        <v>1.483150767534752</v>
+        <v>1.044544608574299</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.698530926909143</v>
+        <v>5.36110671683673</v>
       </c>
       <c r="C10">
-        <v>0.3942598878412014</v>
+        <v>1.40996367162694</v>
       </c>
       <c r="D10">
-        <v>0.03615548230681043</v>
+        <v>0.03435673405355999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.75044133117072</v>
+        <v>3.505654502712758</v>
       </c>
       <c r="G10">
-        <v>0.002415231021234734</v>
+        <v>0.0007261870445992403</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.289371578000257</v>
+        <v>4.804633835762843</v>
       </c>
       <c r="N10">
-        <v>1.481652699949436</v>
+        <v>1.069388106052926</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.802662232735429</v>
+        <v>5.804200356438116</v>
       </c>
       <c r="C11">
-        <v>0.4222553460726317</v>
+        <v>1.52632316846632</v>
       </c>
       <c r="D11">
-        <v>0.03631439266431613</v>
+        <v>0.03591934810041408</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.807043689552103</v>
+        <v>3.785749973163661</v>
       </c>
       <c r="G11">
-        <v>0.002411394509811818</v>
+        <v>0.0007184249485073562</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.37457661968169</v>
+        <v>5.284374118868314</v>
       </c>
       <c r="N11">
-        <v>1.481595273199318</v>
+        <v>1.086163650041499</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.8422023171305</v>
+        <v>5.974652811182466</v>
       </c>
       <c r="C12">
-        <v>0.4328696295687564</v>
+        <v>1.571087074678303</v>
       </c>
       <c r="D12">
-        <v>0.03637786600428683</v>
+        <v>0.03656589346188355</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.82864964613205</v>
+        <v>3.894540458991997</v>
       </c>
       <c r="G12">
-        <v>0.002409967700758379</v>
+        <v>0.0007154735225777725</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.406971522056864</v>
+        <v>5.473887801123055</v>
       </c>
       <c r="N12">
-        <v>1.481664617536126</v>
+        <v>1.09346262714979</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.833681809733321</v>
+        <v>5.937815869353756</v>
       </c>
       <c r="C13">
-        <v>0.4305830606359109</v>
+        <v>1.561412890049496</v>
       </c>
       <c r="D13">
-        <v>0.03636404801827808</v>
+        <v>0.03642401379695315</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.823988718115288</v>
+        <v>3.870980360342855</v>
       </c>
       <c r="G13">
-        <v>0.00241027383597316</v>
+        <v>0.0007161098570298563</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.399988800403293</v>
+        <v>5.432684978795464</v>
       </c>
       <c r="N13">
-        <v>1.481645609921003</v>
+        <v>1.091845586219648</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.80591304135919</v>
+        <v>5.818167179721229</v>
       </c>
       <c r="C14">
-        <v>0.423128323626031</v>
+        <v>1.529991053217429</v>
       </c>
       <c r="D14">
-        <v>0.03631954813317861</v>
+        <v>0.0359713714209704</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.808817760399705</v>
+        <v>3.794642448127917</v>
       </c>
       <c r="G14">
-        <v>0.002411276605352634</v>
+        <v>0.0007181824300396673</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.377239121608</v>
+        <v>5.29979460712012</v>
       </c>
       <c r="N14">
-        <v>1.481599144782763</v>
+        <v>1.086744114296337</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.788917998450927</v>
+        <v>5.745241255953772</v>
       </c>
       <c r="C15">
-        <v>0.4185638031750614</v>
+        <v>1.510839772995837</v>
       </c>
       <c r="D15">
-        <v>0.03629272234580583</v>
+        <v>0.035701610362743</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.799547595194895</v>
+        <v>3.748254377588211</v>
       </c>
       <c r="G15">
-        <v>0.002411894210728947</v>
+        <v>0.0007194500864280822</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.36332141683171</v>
+        <v>5.219486811318575</v>
       </c>
       <c r="N15">
-        <v>1.481582586751813</v>
+        <v>1.083747988784296</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.691740627362265</v>
+        <v>5.332494290140971</v>
       </c>
       <c r="C16">
-        <v>0.3924320905055652</v>
+        <v>1.402449931732463</v>
       </c>
       <c r="D16">
-        <v>0.03614555444718803</v>
+        <v>0.03426165701622352</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.746766098920489</v>
+        <v>3.487701990003217</v>
       </c>
       <c r="G16">
-        <v>0.002415485392818167</v>
+        <v>0.0007266931175508703</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.28382090325016</v>
+        <v>4.774258987638106</v>
       </c>
       <c r="N16">
-        <v>1.481669125562732</v>
+        <v>1.068414673535159</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.632314333118813</v>
+        <v>5.08349610428877</v>
       </c>
       <c r="C17">
-        <v>0.3764233451595942</v>
+        <v>1.337061330431879</v>
       </c>
       <c r="D17">
-        <v>0.03606106408029319</v>
+        <v>0.03346398745198798</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.71468884072911</v>
+        <v>3.332162430406214</v>
       </c>
       <c r="G17">
-        <v>0.002417734942306341</v>
+        <v>0.0007311243495248254</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.23527173017338</v>
+        <v>4.512827780295737</v>
       </c>
       <c r="N17">
-        <v>1.481883004373117</v>
+        <v>1.060511833571155</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.598202370884508</v>
+        <v>4.941678728006138</v>
       </c>
       <c r="C18">
-        <v>0.3672234159230925</v>
+        <v>1.299818009991384</v>
       </c>
       <c r="D18">
-        <v>0.0360145720901599</v>
+        <v>0.03303350165452912</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.69634892461292</v>
+        <v>3.24413128328078</v>
       </c>
       <c r="G18">
-        <v>0.002419045956344771</v>
+        <v>0.0007336711302089561</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.20742637238169</v>
+        <v>4.366178098937297</v>
       </c>
       <c r="N18">
-        <v>1.48206467830515</v>
+        <v>1.056470124809962</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.586664317975647</v>
+        <v>4.893889189012498</v>
       </c>
       <c r="C19">
-        <v>0.3641098040418456</v>
+        <v>1.287267484636686</v>
       </c>
       <c r="D19">
-        <v>0.03599918991064044</v>
+        <v>0.03289233421404703</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.690158147153937</v>
+        <v>3.214558136562232</v>
       </c>
       <c r="G19">
-        <v>0.00241949279089428</v>
+        <v>0.0007345333099531465</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.198011702931964</v>
+        <v>4.317114913020504</v>
       </c>
       <c r="N19">
-        <v>1.482136223410293</v>
+        <v>1.055183957306937</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.638633256074797</v>
+        <v>5.109854362366093</v>
       </c>
       <c r="C20">
-        <v>0.3781266817089772</v>
+        <v>1.343983279266183</v>
       </c>
       <c r="D20">
-        <v>0.03606983986316692</v>
+        <v>0.03354590356148179</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.718092102971696</v>
+        <v>3.348568591529244</v>
       </c>
       <c r="G20">
-        <v>0.002417493701765125</v>
+        <v>0.0007306528917853099</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.240431652782064</v>
+        <v>4.540260751925103</v>
       </c>
       <c r="N20">
-        <v>1.481854156159358</v>
+        <v>1.06129993269964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.814066451840347</v>
+        <v>5.853234406790648</v>
       </c>
       <c r="C21">
-        <v>0.4253176002746386</v>
+        <v>1.539200242778179</v>
       </c>
       <c r="D21">
-        <v>0.03633252873116533</v>
+        <v>0.03610273867610658</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.813269146554603</v>
+        <v>3.816986374424317</v>
       </c>
       <c r="G21">
-        <v>0.002410981363664721</v>
+        <v>0.0007175740693643462</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.383917668522628</v>
+        <v>5.338595764160559</v>
       </c>
       <c r="N21">
-        <v>1.481610309652666</v>
+        <v>1.088215380382508</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.929352047894326</v>
+        <v>6.354887069038739</v>
       </c>
       <c r="C22">
-        <v>0.4562358587294284</v>
+        <v>1.6709503658019</v>
       </c>
       <c r="D22">
-        <v>0.03652346697434439</v>
+        <v>0.03810039792786313</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.876476264070448</v>
+        <v>4.139319145812493</v>
       </c>
       <c r="G22">
-        <v>0.002406876612615927</v>
+        <v>0.0007089502817680948</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.478453549018141</v>
+        <v>5.907578580826637</v>
       </c>
       <c r="N22">
-        <v>1.481982531468944</v>
+        <v>1.111429566291207</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.867763335255688</v>
+        <v>6.085516969557716</v>
       </c>
       <c r="C23">
-        <v>0.4397269245177426</v>
+        <v>1.600202935604784</v>
       </c>
       <c r="D23">
-        <v>0.0364197725291362</v>
+        <v>0.03700008721310155</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.842648487084659</v>
+        <v>3.965610383417726</v>
       </c>
       <c r="G23">
-        <v>0.002409053593287399</v>
+        <v>0.0007135632413421966</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.427925652409428</v>
+        <v>5.598734439253988</v>
       </c>
       <c r="N23">
-        <v>1.481734776344041</v>
+        <v>1.098461007651522</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.635776306126047</v>
+        <v>5.097933670198643</v>
       </c>
       <c r="C24">
-        <v>0.3773565917610426</v>
+        <v>1.340852787033668</v>
       </c>
       <c r="D24">
-        <v>0.03606586585068072</v>
+        <v>0.03350878249317901</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.71655317151081</v>
+        <v>3.341147069717238</v>
       </c>
       <c r="G24">
-        <v>0.00241760271147501</v>
+        <v>0.0007308660396918663</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.238098646175729</v>
+        <v>4.527847070606185</v>
       </c>
       <c r="N24">
-        <v>1.481867015663838</v>
+        <v>1.060942081725827</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.388146166320382</v>
+        <v>4.084944034176601</v>
       </c>
       <c r="C25">
-        <v>0.3103775442822041</v>
+        <v>1.074776147028643</v>
       </c>
       <c r="D25">
-        <v>0.03576429005553194</v>
+        <v>0.03080306691550305</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.584733506319594</v>
+        <v>2.721114821003511</v>
       </c>
       <c r="G25">
-        <v>0.002427480030103785</v>
+        <v>0.0007494736406971561</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.036321109343234</v>
+        <v>3.511778065926919</v>
       </c>
       <c r="N25">
-        <v>1.484246881604037</v>
+        <v>1.039377827904403</v>
       </c>
       <c r="O25">
         <v>0</v>
